--- a/tm_consolidado_desocupacion.xlsx
+++ b/tm_consolidado_desocupacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Laboral 2023\CEPAL\Costa Rica\Sesion 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9FA237-86DB-4151-BA6C-645BDD96B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E1FC2C-1502-4B7B-AC80-89EC1A2F52DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J1" sqref="J1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
